--- a/hw2/hw2_data.xlsx
+++ b/hw2/hw2_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kevharvell/Desktop/CS/325/hw2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD648C07-04F2-9A4B-8286-09E581AF8F55}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDE1D2BB-BD47-E241-BB83-30E95FB818B4}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{12084929-3E04-7443-9C80-8AC82B018AAB}"/>
   </bookViews>
@@ -18,7 +18,20 @@
   <definedNames>
     <definedName name="_xlchart.v1.0" hidden="1">Sheet1!$D$3:$D$12</definedName>
     <definedName name="_xlchart.v1.1" hidden="1">Sheet1!$E$2</definedName>
+    <definedName name="_xlchart.v1.10" hidden="1">Sheet1!$D$3:$D$12</definedName>
+    <definedName name="_xlchart.v1.11" hidden="1">Sheet1!$E$2</definedName>
+    <definedName name="_xlchart.v1.12" hidden="1">Sheet1!$E$3:$E$12</definedName>
+    <definedName name="_xlchart.v1.13" hidden="1">Sheet1!$D$3:$D$12</definedName>
+    <definedName name="_xlchart.v1.14" hidden="1">Sheet1!$E$2</definedName>
+    <definedName name="_xlchart.v1.15" hidden="1">Sheet1!$E$3:$E$12</definedName>
     <definedName name="_xlchart.v1.2" hidden="1">Sheet1!$E$3:$E$12</definedName>
+    <definedName name="_xlchart.v1.3" hidden="1">Sheet1!$A$3:$A$12</definedName>
+    <definedName name="_xlchart.v1.4" hidden="1">Sheet1!$B$2</definedName>
+    <definedName name="_xlchart.v1.5" hidden="1">Sheet1!$B$3:$B$12</definedName>
+    <definedName name="_xlchart.v1.6" hidden="1">Sheet1!$E$2</definedName>
+    <definedName name="_xlchart.v1.7" hidden="1">Sheet1!$E$3:$E$12</definedName>
+    <definedName name="_xlchart.v1.8" hidden="1">Sheet1!$G$3:$G$12</definedName>
+    <definedName name="_xlchart.v1.9" hidden="1">Sheet1!$H$3:$H$12</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -30,7 +43,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="4">
+  <si>
+    <t>Insertion Sort</t>
+  </si>
   <si>
     <t>Merge Sort</t>
   </si>
@@ -1452,12 +1468,13 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>Merge Sort</a:t>
+              <a:t>Merge</a:t>
             </a:r>
             <a:r>
               <a:rPr lang="en-US" baseline="0"/>
-              <a:t> 4</a:t>
+              <a:t> Sort vs Merge Sort 4</a:t>
             </a:r>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:rich>
       </c:tx>
@@ -1469,6 +1486,26 @@
         </a:ln>
         <a:effectLst/>
       </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
@@ -1477,8 +1514,143 @@
         <c:scatterStyle val="lineMarker"/>
         <c:varyColors val="0"/>
         <c:ser>
-          <c:idx val="2"/>
+          <c:idx val="0"/>
           <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$B$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Merge Sort</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="power"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$A$3:$A$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>20000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>40000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>60000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>80000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>120000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>140000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>160000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>180000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>200000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$B$3:$B$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.19666666669999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.44333333330000002</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.6166666666666667</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.84</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.81333333333333335</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.99666666666666659</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.0799999999999998</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.1433333333333333</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.6733333333333336</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.09</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-11CD-D643-B96B-6B07C925E5C8}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
           <c:tx>
             <c:strRef>
               <c:f>Sheet1!$E$2</c:f>
@@ -1491,13 +1663,45 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="19050">
+            <a:ln w="19050" cap="rnd">
               <a:noFill/>
+              <a:round/>
             </a:ln>
+            <a:effectLst/>
           </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="poly"/>
+            <c:order val="2"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$D$3:$D$12</c:f>
+              <c:f>Sheet1!$A$3:$A$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
@@ -1576,236 +1780,18 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-97D7-4D4F-A81F-A57BBA65B91F}"/>
+              <c16:uniqueId val="{00000001-11CD-D643-B96B-6B07C925E5C8}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
         <c:ser>
-          <c:idx val="3"/>
-          <c:order val="1"/>
+          <c:idx val="2"/>
+          <c:order val="2"/>
           <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$E$2</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Merge Sort 4</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+            <c:v>Insertion Sort</c:v>
           </c:tx>
           <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:noFill/>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:xVal>
-            <c:numRef>
-              <c:f>Sheet1!$D$3:$D$12</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>20000</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>40000</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>60000</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>80000</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>100000</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>120000</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>140000</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>160000</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>180000</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>200000</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Sheet1!$E$3:$E$12</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>0.152</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.30199999999999999</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.43600000000000005</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.57199999999999995</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.81600000000000006</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1.028</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1.498</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1.6440000000000001</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>1.9920000000000002</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>2.58</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-97D7-4D4F-A81F-A57BBA65B91F}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$E$2</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Merge Sort 4</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050">
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
-          <c:xVal>
-            <c:numRef>
-              <c:f>Sheet1!$D$3:$D$12</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>20000</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>40000</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>60000</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>80000</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>100000</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>120000</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>140000</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>160000</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>180000</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>200000</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Sheet1!$E$3:$E$12</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>0.152</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.30199999999999999</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.43600000000000005</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.57199999999999995</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.81600000000000006</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1.028</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1.498</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1.6440000000000001</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>1.9920000000000002</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>2.58</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-97D7-4D4F-A81F-A57BBA65B91F}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="3"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$E$2</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Merge Sort 4</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
+            <a:ln w="25400" cap="rnd">
               <a:noFill/>
               <a:round/>
             </a:ln>
@@ -1816,11 +1802,11 @@
             <c:size val="5"/>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="accent1"/>
+                <a:schemeClr val="accent3"/>
               </a:solidFill>
               <a:ln w="9525">
                 <a:solidFill>
-                  <a:schemeClr val="accent1"/>
+                  <a:srgbClr val="92D050"/>
                 </a:solidFill>
               </a:ln>
               <a:effectLst/>
@@ -1830,7 +1816,7 @@
             <c:spPr>
               <a:ln w="19050" cap="rnd">
                 <a:solidFill>
-                  <a:schemeClr val="accent1"/>
+                  <a:schemeClr val="accent3"/>
                 </a:solidFill>
                 <a:prstDash val="sysDot"/>
               </a:ln>
@@ -1838,119 +1824,83 @@
             </c:spPr>
             <c:trendlineType val="poly"/>
             <c:order val="2"/>
-            <c:dispRSqr val="1"/>
-            <c:dispEq val="1"/>
-            <c:trendlineLbl>
-              <c:layout>
-                <c:manualLayout>
-                  <c:x val="-0.13370224388901117"/>
-                  <c:y val="0.16436371954036458"/>
-                </c:manualLayout>
-              </c:layout>
-              <c:numFmt formatCode="General" sourceLinked="0"/>
-              <c:spPr>
-                <a:noFill/>
-                <a:ln>
-                  <a:noFill/>
-                </a:ln>
-                <a:effectLst/>
-              </c:spPr>
-              <c:txPr>
-                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-                <a:lstStyle/>
-                <a:p>
-                  <a:pPr>
-                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="65000"/>
-                          <a:lumOff val="35000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                      <a:latin typeface="+mn-lt"/>
-                      <a:ea typeface="+mn-ea"/>
-                      <a:cs typeface="+mn-cs"/>
-                    </a:defRPr>
-                  </a:pPr>
-                  <a:endParaRPr lang="en-US"/>
-                </a:p>
-              </c:txPr>
-            </c:trendlineLbl>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$D$3:$D$12</c:f>
+              <c:f>Sheet1!$G$3:$G$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
+                  <c:v>625</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1250</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2500</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7500</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>12500</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>15000</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>20000</c:v>
                 </c:pt>
-                <c:pt idx="1">
-                  <c:v>40000</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>60000</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>80000</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>100000</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>120000</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>140000</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>160000</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>180000</c:v>
-                </c:pt>
                 <c:pt idx="9">
-                  <c:v>200000</c:v>
+                  <c:v>25000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$E$3:$E$12</c:f>
+              <c:f>Sheet1!$H$3:$H$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>0.152</c:v>
+                  <c:v>4.3333333330000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.30199999999999999</c:v>
+                  <c:v>0.49</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.43600000000000005</c:v>
+                  <c:v>0.57333333330000003</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.57199999999999995</c:v>
+                  <c:v>1.7933333330000001</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.81600000000000006</c:v>
+                  <c:v>3.233333333</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.028</c:v>
+                  <c:v>6.22</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.498</c:v>
+                  <c:v>7.7266666669999999</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.6440000000000001</c:v>
+                  <c:v>13.45</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.9920000000000002</c:v>
+                  <c:v>24.616666670000001</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2.58</c:v>
+                  <c:v>39.97</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1958,7 +1908,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-97D7-4D4F-A81F-A57BBA65B91F}"/>
+              <c16:uniqueId val="{00000005-11CD-D643-B96B-6B07C925E5C8}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1970,13 +1920,16 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="117832143"/>
-        <c:axId val="117816575"/>
+        <c:axId val="280635807"/>
+        <c:axId val="119126575"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="117832143"/>
+        <c:axId val="280635807"/>
         <c:scaling>
+          <c:logBase val="10"/>
           <c:orientation val="minMax"/>
+          <c:max val="210000"/>
+          <c:min val="100"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -2028,6 +1981,26 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
@@ -2066,13 +2039,14 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="117816575"/>
+        <c:crossAx val="119126575"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="117816575"/>
+        <c:axId val="119126575"/>
         <c:scaling>
+          <c:logBase val="10"/>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
@@ -2125,6 +2099,26 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
@@ -2163,16 +2157,87 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="117832143"/>
+        <c:crossAx val="280635807"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
     </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:legendEntry>
+        <c:idx val="3"/>
+        <c:delete val="1"/>
+      </c:legendEntry>
+      <c:legendEntry>
+        <c:idx val="4"/>
+        <c:delete val="1"/>
+      </c:legendEntry>
+      <c:legendEntry>
+        <c:idx val="5"/>
+        <c:delete val="1"/>
+      </c:legendEntry>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
     <c:showDLblsOverMax val="0"/>
-    <c:extLst/>
   </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
   <c:txPr>
     <a:bodyPr/>
     <a:lstStyle/>
@@ -2192,6 +2257,46 @@
 </file>
 
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -2747,6 +2852,522 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -2787,16 +3408,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>136251</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>24560</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>497908</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>7740</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>538277</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>142981</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>75696</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>126161</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2823,29 +3444,27 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>445762</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>159801</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>527345</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>7738</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>23550</xdr:colOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>159802</xdr:colOff>
       <xdr:row>30</xdr:row>
-      <xdr:rowOff>76368</xdr:rowOff>
+      <xdr:rowOff>58874</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="6" name="Chart 5">
+        <xdr:cNvPr id="8" name="Chart 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D5E9E16C-927D-884D-85DF-B563DAC70BB0}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F3280778-8E70-5F47-BCC1-6D7855BAAAFA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr>
-          <a:graphicFrameLocks/>
-        </xdr:cNvGraphicFramePr>
+        <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
@@ -3161,23 +3780,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EFF27EAA-EB7D-E542-936C-085B0B7C9138}">
   <dimension ref="A1:X995"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="151" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="K22" sqref="K22"/>
+    <sheetView tabSelected="1" topLeftCell="F9" zoomScale="151" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="N27" sqref="N27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B1" s="1"/>
       <c r="D1" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
+      <c r="G1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
       <c r="J1" s="1"/>
@@ -3198,20 +3819,24 @@
     </row>
     <row r="2" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="D2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="H2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
       <c r="I2" s="1"/>
       <c r="J2" s="1"/>
       <c r="K2" s="1"/>
@@ -3244,8 +3869,12 @@
         <v>0.152</v>
       </c>
       <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
-      <c r="H3" s="1"/>
+      <c r="G3" s="1">
+        <v>625</v>
+      </c>
+      <c r="H3" s="1">
+        <v>4.3333333330000001E-2</v>
+      </c>
       <c r="I3" s="1"/>
       <c r="J3" s="1"/>
       <c r="K3" s="1"/>
@@ -3278,8 +3907,12 @@
         <v>0.30199999999999999</v>
       </c>
       <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
-      <c r="H4" s="1"/>
+      <c r="G4" s="1">
+        <v>1250</v>
+      </c>
+      <c r="H4" s="1">
+        <v>0.49</v>
+      </c>
       <c r="I4" s="1"/>
       <c r="J4" s="1"/>
       <c r="K4" s="1"/>
@@ -3313,8 +3946,12 @@
         <v>0.43600000000000005</v>
       </c>
       <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
+      <c r="G5" s="1">
+        <v>2500</v>
+      </c>
+      <c r="H5" s="1">
+        <v>0.57333333330000003</v>
+      </c>
       <c r="I5" s="1"/>
       <c r="J5" s="1"/>
       <c r="K5" s="1"/>
@@ -3348,8 +3985,12 @@
         <v>0.57199999999999995</v>
       </c>
       <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
-      <c r="H6" s="1"/>
+      <c r="G6" s="1">
+        <v>5000</v>
+      </c>
+      <c r="H6" s="1">
+        <v>1.7933333330000001</v>
+      </c>
       <c r="I6" s="1"/>
       <c r="J6" s="1"/>
       <c r="K6" s="1"/>
@@ -3383,8 +4024,12 @@
         <v>0.81600000000000006</v>
       </c>
       <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
-      <c r="H7" s="1"/>
+      <c r="G7" s="1">
+        <v>7500</v>
+      </c>
+      <c r="H7" s="1">
+        <v>3.233333333</v>
+      </c>
       <c r="I7" s="1"/>
       <c r="J7" s="1"/>
       <c r="K7" s="1"/>
@@ -3418,8 +4063,12 @@
         <v>1.028</v>
       </c>
       <c r="F8" s="1"/>
-      <c r="G8" s="1"/>
-      <c r="H8" s="1"/>
+      <c r="G8" s="1">
+        <v>10000</v>
+      </c>
+      <c r="H8" s="1">
+        <v>6.22</v>
+      </c>
       <c r="I8" s="1"/>
       <c r="J8" s="1"/>
       <c r="K8" s="1"/>
@@ -3453,8 +4102,12 @@
         <v>1.498</v>
       </c>
       <c r="F9" s="1"/>
-      <c r="G9" s="1"/>
-      <c r="H9" s="1"/>
+      <c r="G9" s="1">
+        <v>12500</v>
+      </c>
+      <c r="H9" s="1">
+        <v>7.7266666669999999</v>
+      </c>
       <c r="I9" s="1"/>
       <c r="J9" s="1"/>
       <c r="K9" s="1"/>
@@ -3488,8 +4141,12 @@
         <v>1.6440000000000001</v>
       </c>
       <c r="F10" s="1"/>
-      <c r="G10" s="1"/>
-      <c r="H10" s="1"/>
+      <c r="G10" s="1">
+        <v>15000</v>
+      </c>
+      <c r="H10" s="1">
+        <v>13.45</v>
+      </c>
       <c r="I10" s="1"/>
       <c r="J10" s="1"/>
       <c r="K10" s="1"/>
@@ -3523,8 +4180,12 @@
         <v>1.9920000000000002</v>
       </c>
       <c r="F11" s="1"/>
-      <c r="G11" s="1"/>
-      <c r="H11" s="1"/>
+      <c r="G11" s="1">
+        <v>20000</v>
+      </c>
+      <c r="H11" s="1">
+        <v>24.616666670000001</v>
+      </c>
       <c r="I11" s="1"/>
       <c r="J11" s="1"/>
       <c r="K11" s="1"/>
@@ -3558,8 +4219,12 @@
         <v>2.58</v>
       </c>
       <c r="F12" s="1"/>
-      <c r="G12" s="1"/>
-      <c r="H12" s="1"/>
+      <c r="G12" s="1">
+        <v>25000</v>
+      </c>
+      <c r="H12" s="1">
+        <v>39.97</v>
+      </c>
       <c r="I12" s="1"/>
       <c r="J12" s="1"/>
       <c r="K12" s="1"/>
